--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/10/seed1/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.0316</v>
+        <v>-22.06000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>5.125100000000001</v>
+        <v>5.133100000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.11739999999997</v>
+        <v>-20.11619999999998</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.647899999999999</v>
+        <v>4.8659</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.06460000000001</v>
+        <v>-22.01100000000002</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.301899999999993</v>
+        <v>6.082999999999995</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.778100000000006</v>
+        <v>8.563900000000006</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.588799999999985</v>
+        <v>9.535099999999989</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.9422</v>
+        <v>-21.8009</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.17769999999997</v>
+        <v>-21.09449999999996</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.711999999999998</v>
+        <v>5.514799999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.19659999999999</v>
+        <v>-21.20500000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.89509999999997</v>
+        <v>-20.69959999999997</v>
       </c>
       <c r="B40" t="n">
-        <v>8.593599999999995</v>
+        <v>7.915899999999998</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>8.721300000000003</v>
+        <v>8.638100000000003</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.086700000000005</v>
+        <v>5.929600000000004</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.763700000000004</v>
+        <v>5.844600000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.1603</v>
+        <v>-22.2722</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.92680000000002</v>
+        <v>-22.16370000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.804299999999998</v>
+        <v>4.852799999999998</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.316600000000002</v>
+        <v>5.324000000000001</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.4414</v>
+        <v>-21.45310000000001</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.8551</v>
+        <v>5.567999999999997</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.545600000000004</v>
+        <v>5.370800000000006</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.595199999999997</v>
+        <v>4.554699999999994</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>4.691199999999994</v>
+        <v>4.748699999999995</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.06390000000002</v>
+        <v>-22.03460000000002</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
